--- a/Tables/Table S8.xlsx
+++ b/Tables/Table S8.xlsx
@@ -28,7 +28,7 @@
     <t>Table S8: Generational Differentially methylated regions (DMRs) in methylation contexts of ecotypes</t>
   </si>
   <si>
-    <t xml:space="preserve">Table showing the location, numbers, hyper- and hypo-methyalted samples, methylation level of samples of DMRs between AS1 and AS3 in ET in different methylation context and ecotypes </t>
+    <t xml:space="preserve">Table showing the location, numbers, hyper- and hypo-methyalted samples, methylation level of samples of DMRs between AS1 and AS3 in NT in different methylation context and ecotypes </t>
   </si>
   <si>
     <t>The word "generational" is the only explanation here about what this is. Write  in the sub-text that it is DMRs between AS1 and AS 3 -- and that it is all under NT conditions....</t>
